--- a/future_research_guidelines.xlsx
+++ b/future_research_guidelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\OneDrive\Documents\GitHub\R_Tutorials\Prelims\Prelims_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itsme\OneDrive\Documents\GitHub\SIOP2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E948B1BA-E374-46BD-9DA6-3B82077B1B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529AD0AF-8787-4694-8B1E-38D9187225D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,30 +74,15 @@
     <t>Research Question</t>
   </si>
   <si>
-    <t>Create clear learning objectives by including a behavior and criterion. The condition is often implied for AI-VR training articles, but it can be helpful to include.</t>
-  </si>
-  <si>
     <t>Measure self-efficacy directly using a self-efficacy assessment.</t>
   </si>
   <si>
-    <t>Include effective feedback mechanisms, encourage error making, and create training aspects that focus on learning rather than performance. Assessing participants inside of a AI-VR training program can inhibit learning outcomes.</t>
-  </si>
-  <si>
     <t>Measure engagement directly using an engagement assessment.</t>
   </si>
   <si>
     <t xml:space="preserve">AI-VR training programs should strive to incorporate all of these aspects. </t>
   </si>
   <si>
-    <t>AI-VR training programs can allow trainees' to monitor progress via user interface (UI) elements such as maps and progress bars. Trainings programs can also implement checkpoints and endpoints with visual / haptic feedback (success screens, animations, sounds, etc.)</t>
-  </si>
-  <si>
-    <t>Provide instant feedback and additional opportunities for practice to encourage errors. Do not assess participant performance inside of the training program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build game elements that allow trainees to select training courses or a preferred order of courses. Create scenarios that allow autonomous movement and decision making. Use algorithms that select training scenarios based on participant's training decisions. </t>
-  </si>
-  <si>
     <t>Always include cognitive and / or behavioral indicators. Include reaction measures beyond engagement and self-efficacy to help provide more information to readers.</t>
   </si>
   <si>
@@ -108,6 +93,21 @@
   </si>
   <si>
     <t>Ensure that the training programs are job-relevant, have good task-technology fit, and are immersive enough to boost user presence.</t>
+  </si>
+  <si>
+    <t>Create clear learning objectives by including a behavior and criterion. The condition is often implied in AI-VR training programs, but it can be helpful to include.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include effective feedback mechanisms, encourage error making, and create training aspects that focus on learning rather than performance. </t>
+  </si>
+  <si>
+    <t>AI-VR training programs can allow trainees' to monitor progress via user interface (UI) elements such as maps and progress bars. AI-VR training programs can also implement checkpoints and endpoints with visual / haptic feedback (success screens, animations, sounds, etc.)</t>
+  </si>
+  <si>
+    <t>Provide instant feedback and additional opportunities for practice to encourage errors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build game elements that allow trainees to select training courses or use adaptive ai to tailor the sequencing of courses to the trainee's performance. Create scenarios that allow autonomous movement and decision making. Use algorithms that select training scenarios based on participant's training decisions. </t>
   </si>
 </sst>
 </file>
@@ -466,110 +466,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="50.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.73046875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
